--- a/results/RIMP9_260213-1335/ReqPowDATA.xlsx
+++ b/results/RIMP9_260213-1335/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.37361846311931</v>
+        <v>54.85769284684282</v>
       </c>
       <c r="C2" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="D2" t="n">
-        <v>1185.547466876257</v>
+        <v>1070.776217347561</v>
       </c>
       <c r="E2" t="n">
-        <v>1247.472369262386</v>
+        <v>1097.153856936857</v>
       </c>
       <c r="F2" t="n">
-        <v>1247.472369262386</v>
+        <v>1097.153856936857</v>
       </c>
       <c r="G2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="H2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="I2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="J2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="K2" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="L2" t="n">
-        <v>1247.472369262386</v>
+        <v>1097.153856936857</v>
       </c>
       <c r="M2" t="n">
-        <v>1247.472369262386</v>
+        <v>1097.153856936857</v>
       </c>
       <c r="N2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="O2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="P2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="Q2" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="R2" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="S2" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="T2" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="U2" t="n">
-        <v>62.37361846311931</v>
+        <v>54.85769284684282</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.37361846311931</v>
+        <v>54.85769284684282</v>
       </c>
       <c r="C3" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="D3" t="n">
-        <v>942.5201904898913</v>
+        <v>852.701936364884</v>
       </c>
       <c r="E3" t="n">
-        <v>1004.445092876021</v>
+        <v>879.0795759541791</v>
       </c>
       <c r="F3" t="n">
-        <v>1004.445092876021</v>
+        <v>879.0795759541791</v>
       </c>
       <c r="G3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="H3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="I3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="J3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="K3" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="L3" t="n">
-        <v>1004.445092876021</v>
+        <v>879.0795759541791</v>
       </c>
       <c r="M3" t="n">
-        <v>1004.445092876021</v>
+        <v>879.0795759541791</v>
       </c>
       <c r="N3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="O3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="P3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="Q3" t="n">
-        <v>1369.394946795147</v>
+        <v>1194.000433403416</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="S3" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="T3" t="n">
-        <v>124.7472369262386</v>
+        <v>109.7153856936856</v>
       </c>
       <c r="U3" t="n">
-        <v>62.37361846311931</v>
+        <v>54.85769284684282</v>
       </c>
     </row>
     <row r="4">
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>243.0272763863652</v>
+        <v>218.0742809826774</v>
       </c>
       <c r="E4" t="n">
-        <v>243.0272763863652</v>
+        <v>218.0742809826774</v>
       </c>
       <c r="F4" t="n">
-        <v>243.0272763863652</v>
+        <v>218.0742809826774</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>243.0272763863652</v>
+        <v>218.0742809826774</v>
       </c>
       <c r="M4" t="n">
-        <v>243.0272763863652</v>
+        <v>218.0742809826774</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
